--- a/biology/Botanique/Ronce_pubescente/Ronce_pubescente.xlsx
+++ b/biology/Botanique/Ronce_pubescente/Ronce_pubescente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus pubescens
-La ronce pubescente[1], catherinette ou catherinettes (Rubus pubescens) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une plante vivace herbacée qui pousse dans l'Est de l'Amérique du Nord.
+La ronce pubescente, catherinette ou catherinettes (Rubus pubescens) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une plante vivace herbacée qui pousse dans l'Est de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus pubescens Raf. ne doit pas être confondu avec Rubus pubescens Weihe ex Boenn., nom illégitime synonyme de Rubus  chloocladus  W.C.R.Watson
 </t>
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont sucrés et juteux et peuvent être mangés nature, mais ils peuvent également être utilisés dans les confitures, les gelées et dans la plupart des recettes à base de framboises rouges.
 Les feuilles sont également comestibles et aromatiques.
